--- a/data/trans_orig/P78D$hipoteca_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78D$hipoteca_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC3C03B5-2679-4E59-BB53-B40397BF9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7FFA93F-EAEF-4E94-AC9C-AB2B8D299444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10BA03FC-3E17-48DA-A876-705894A5F23F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{70A67AAF-BFBB-4BAC-A615-C8C9DC58438A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="416">
-  <si>
-    <t>Población que ha tenido algún retraso en pagos en los últimos 12 meses en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="404">
+  <si>
+    <t>Población que ha tenido algún retraso en pagos en los últimos 12 meses (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,1222 +65,1186 @@
     <t>Hipoteca</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>Recibos de agua, luz, ...</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>Autónomos</t>
+  </si>
+  <si>
+    <t>Colegios</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>Impuestos</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Recibos de agua, luz, ...</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>Autónomos</t>
-  </si>
-  <si>
-    <t>Colegios</t>
-  </si>
-  <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
     <t>0,01%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1695,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68DF8E-73B8-415A-B155-6DB0079AAA21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54B4831-7A98-4142-B03C-992F293CD88E}">
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2181,31 +2145,31 @@
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2214,10 +2178,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -2232,10 +2196,10 @@
         <v>77</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>79</v>
@@ -2259,19 +2223,19 @@
         <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2280,31 +2244,31 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2313,31 +2277,31 @@
         <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2361,7 +2325,7 @@
         <v>18</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>10</v>
@@ -2370,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2394,7 +2358,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>10</v>
@@ -2403,7 +2367,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2427,7 +2391,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>10</v>
@@ -2436,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2445,31 +2409,31 @@
         <v>46</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2478,57 +2442,57 @@
         <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>26</v>
@@ -2537,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2546,31 +2510,31 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2579,31 +2543,31 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2618,25 +2582,25 @@
         <v>18</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2645,31 +2609,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2678,31 +2642,31 @@
         <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2717,7 +2681,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
@@ -2735,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2750,7 +2714,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
@@ -2768,7 +2732,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2783,7 +2747,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
@@ -2801,7 +2765,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2810,31 +2774,31 @@
         <v>46</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2843,66 +2807,66 @@
         <v>51</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2911,31 +2875,31 @@
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2944,31 +2908,31 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2977,31 +2941,31 @@
         <v>27</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3010,31 +2974,31 @@
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H41" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3043,31 +3007,31 @@
         <v>33</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3076,13 +3040,13 @@
         <v>43</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
@@ -3091,16 +3055,16 @@
         <v>18</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3115,7 +3079,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -3124,7 +3088,7 @@
         <v>18</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>10</v>
@@ -3148,7 +3112,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
@@ -3157,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>10</v>
@@ -3175,31 +3139,31 @@
         <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3208,48 +3172,48 @@
         <v>51</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
@@ -3258,16 +3222,16 @@
         <v>18</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3282,25 +3246,25 @@
         <v>18</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3315,7 +3279,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
@@ -3324,7 +3288,7 @@
         <v>18</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>10</v>
@@ -3333,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3348,7 +3312,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
@@ -3357,7 +3321,7 @@
         <v>18</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>10</v>
@@ -3366,7 +3330,7 @@
         <v>18</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3375,31 +3339,31 @@
         <v>28</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3408,31 +3372,31 @@
         <v>33</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3447,7 +3411,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
@@ -3456,7 +3420,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>10</v>
@@ -3465,7 +3429,7 @@
         <v>18</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3480,7 +3444,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
@@ -3489,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>10</v>
@@ -3498,7 +3462,7 @@
         <v>18</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3513,7 +3477,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
@@ -3522,7 +3486,7 @@
         <v>18</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>10</v>
@@ -3531,7 +3495,7 @@
         <v>18</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3540,31 +3504,31 @@
         <v>46</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3614,7 +3578,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
@@ -3623,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>10</v>
@@ -3641,31 +3605,31 @@
         <v>17</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3674,31 +3638,31 @@
         <v>24</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3707,14 +3671,14 @@
         <v>27</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
@@ -3722,16 +3686,16 @@
         <v>18</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3740,31 +3704,31 @@
         <v>28</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3773,31 +3737,31 @@
         <v>33</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3806,14 +3770,14 @@
         <v>43</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
@@ -3821,16 +3785,16 @@
         <v>18</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3845,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
@@ -3854,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>10</v>
@@ -3878,7 +3842,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
@@ -3887,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>10</v>
@@ -3905,31 +3869,31 @@
         <v>46</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>269</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3938,66 +3902,66 @@
         <v>51</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="J69" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4006,31 +3970,31 @@
         <v>17</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4039,31 +4003,31 @@
         <v>24</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4072,31 +4036,31 @@
         <v>27</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="H73" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4105,31 +4069,31 @@
         <v>28</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4138,31 +4102,31 @@
         <v>33</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K75" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4171,31 +4135,31 @@
         <v>43</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>309</v>
+        <v>10</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4210,7 +4174,7 @@
         <v>18</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>10</v>
@@ -4219,7 +4183,7 @@
         <v>18</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>10</v>
@@ -4237,31 +4201,31 @@
         <v>45</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4270,31 +4234,31 @@
         <v>46</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4303,66 +4267,66 @@
         <v>51</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="K80" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="I81" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="J81" s="7" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4371,31 +4335,31 @@
         <v>17</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I82" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="J82" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="K82" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4404,31 +4368,31 @@
         <v>24</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>336</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4437,13 +4401,13 @@
         <v>27</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>10</v>
@@ -4452,16 +4416,16 @@
         <v>18</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4470,31 +4434,31 @@
         <v>28</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4503,31 +4467,31 @@
         <v>33</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4536,31 +4500,31 @@
         <v>43</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>352</v>
+        <v>210</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4575,25 +4539,25 @@
         <v>18</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4608,25 +4572,25 @@
         <v>18</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4635,31 +4599,31 @@
         <v>46</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I90" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="K90" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4668,31 +4632,31 @@
         <v>51</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I91" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="J91" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="K91" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4703,31 +4667,31 @@
         <v>8</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4736,31 +4700,31 @@
         <v>17</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4769,31 +4733,31 @@
         <v>24</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>383</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4802,31 +4766,31 @@
         <v>27</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4835,31 +4799,31 @@
         <v>28</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>181</v>
+        <v>373</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>155</v>
+        <v>374</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>387</v>
+        <v>256</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4868,31 +4832,31 @@
         <v>33</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4901,31 +4865,31 @@
         <v>43</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>381</v>
+        <v>179</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4940,25 +4904,25 @@
         <v>18</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>15</v>
+        <v>384</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4967,31 +4931,31 @@
         <v>45</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>398</v>
+        <v>143</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>65</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5000,31 +4964,31 @@
         <v>46</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>204</v>
+        <v>392</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -5033,36 +4997,36 @@
         <v>51</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
